--- a/biology/Botanique/Edmond_Davall/Edmond_Davall.xlsx
+++ b/biology/Botanique/Edmond_Davall/Edmond_Davall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Edmond Davall (né le 25 mars 1793 à Orbe, mort le 18 décembre 1860 à Lausanne) est un forestier et homme politique suisse.
 </t>
@@ -511,14 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils d'Edmund Davall (1763-1798), un botaniste d'origine anglaise, et de son épouse Henriette Crinsoz de Cottens (1762-1839), vaudoise, Edmond Davall naît à Orbe le 25 mars 1793. En 1809, sa famille déménage à Stuttgart, où il fait son lycée. Il étudie la sylviculture en Allemagne, où il obtient son diplôme en 1816 à l'Institut forestier de Schwarzenberg près de Langenfeld en Bavière[1]. Il retourne ensuite en Suisse et travaille à Orbe, Lausanne et Moudon. Il réalise notamment le plan d'aménagement complet des forêts de Lausanne et du Canton de Neuchâtel. Il se marie en 1820 avec Louise de Joffrey (1800-1869), originaire de Vevey, et vient y vivre avec elle. Ils eurent quatre enfants, dont l'aîné, Albert Davall, qui devint lui aussi un forestier notable.
-Carrière forestière
-Edmond Davall fut membre de la Commission cantonale des forêts du Canton de Vaud (1822-1826, 1836-1860), vice-président de cette Commission et inspecteur général des forêts du Canton (1858-1860), président de la Société des forestiers suisses (1853), fondateur et président de la Société vaudoise de sylviculture (1858-1860). Il est vu comme le créateur de l'économie forestière du canton de Vaud et comme un forestier suisse de premier plan.
-Carrière politique et militaire
-Sous le gouvernement libéral, entre 1830 et 1845, Davall est très actif dans la politique vaudoise, et contribua considérablement à la formulation des lois suisses de 1835 sur les forêts. En 1832, il est nommé juge du district de Vevey. Il est conseiller communal de Vevey de 1832 à 1860 et député libéral au Grand Conseil de 1843 à 1845. Il est cofondateur en 1842 du journal libéral "Courrier suisse". 
-Au militaire, il est colonel d'artillerie dans les Milices vaudoises (il refuse même le poste d'inspecteur général des milices du canton en 1835). Il est également lieutenant-colonel fédéral.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Edmund Davall (1763-1798), un botaniste d'origine anglaise, et de son épouse Henriette Crinsoz de Cottens (1762-1839), vaudoise, Edmond Davall naît à Orbe le 25 mars 1793. En 1809, sa famille déménage à Stuttgart, où il fait son lycée. Il étudie la sylviculture en Allemagne, où il obtient son diplôme en 1816 à l'Institut forestier de Schwarzenberg près de Langenfeld en Bavière. Il retourne ensuite en Suisse et travaille à Orbe, Lausanne et Moudon. Il réalise notamment le plan d'aménagement complet des forêts de Lausanne et du Canton de Neuchâtel. Il se marie en 1820 avec Louise de Joffrey (1800-1869), originaire de Vevey, et vient y vivre avec elle. Ils eurent quatre enfants, dont l'aîné, Albert Davall, qui devint lui aussi un forestier notable.
 </t>
         </is>
       </c>
@@ -544,10 +553,87 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière forestière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Edmond Davall fut membre de la Commission cantonale des forêts du Canton de Vaud (1822-1826, 1836-1860), vice-président de cette Commission et inspecteur général des forêts du Canton (1858-1860), président de la Société des forestiers suisses (1853), fondateur et président de la Société vaudoise de sylviculture (1858-1860). Il est vu comme le créateur de l'économie forestière du canton de Vaud et comme un forestier suisse de premier plan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Edmond_Davall</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edmond_Davall</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique et militaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous le gouvernement libéral, entre 1830 et 1845, Davall est très actif dans la politique vaudoise, et contribua considérablement à la formulation des lois suisses de 1835 sur les forêts. En 1832, il est nommé juge du district de Vevey. Il est conseiller communal de Vevey de 1832 à 1860 et député libéral au Grand Conseil de 1843 à 1845. Il est cofondateur en 1842 du journal libéral "Courrier suisse". 
+Au militaire, il est colonel d'artillerie dans les Milices vaudoises (il refuse même le poste d'inspecteur général des milices du canton en 1835). Il est également lieutenant-colonel fédéral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Edmond_Davall</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Edmond_Davall</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cédric ROSSIER, mémoire de licence de l'Université de Lausanne, septembre 2003.
 "Edmond Davall : approche biographique de l’homme et du forestier", Cédric ROSSIER, in Revue historique vaudoise, 2005, pp. 83-107.
